--- a/src/test/resources/testdata/Client/Mobile1.xlsx
+++ b/src/test/resources/testdata/Client/Mobile1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium - CopyPractice\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\AppiumNew\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A3BDF-CFD6-4FF0-A082-1B6C570BDA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B096A326-7FF6-4647-8EB7-F96B480D725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9AA653-903C-4FC5-89FE-CCD5EDF44D0D}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1406,10 +1406,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2040,10 +2040,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
